--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu.qilong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7361F-45C1-4F7E-BDB6-F652E1755C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190629D-B1AA-4E85-AB47-8D79153158FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,7 +92,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,7 +134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -145,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -228,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,7 +243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -296,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +342,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -379,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -656,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -724,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -745,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +755,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +812,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -844,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,7 +896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,7 +932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -953,7 +953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,7 +995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1089,7 +1089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1100,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,7 +1173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1226,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1268,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +1283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1315,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,7 +1351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1362,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1372,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1404,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1419,7 +1419,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,7 +1461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1472,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1493,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1550,7 +1550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1613,7 +1613,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1634,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,7 +1660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1671,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1749,7 +1749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1775,7 +1775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1786,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,7 +1796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1807,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1822,7 +1822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1843,7 +1843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1885,7 +1885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1917,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1932,7 +1932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1943,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1953,7 +1953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2000,7 +2000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2026,7 +2026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2126,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2157,7 +2157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2168,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2183,7 +2183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2215,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2241,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2251,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2262,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2272,7 +2272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2283,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2330,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2340,7 +2340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2351,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2366,7 +2366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2377,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2392,7 +2392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2403,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2439,7 +2439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2471,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2497,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2518,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2539,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2596,7 +2596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2607,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2617,7 +2617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2628,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2638,7 +2638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2649,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2659,7 +2659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2670,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2711,7 +2711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2722,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2732,7 +2732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2743,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2758,7 +2758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2769,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2800,7 +2800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2811,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2821,7 +2821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2832,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2842,7 +2842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2853,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2868,7 +2868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2879,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2889,7 +2889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,7 +2910,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2921,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2936,7 +2936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2947,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2962,7 +2962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2973,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2983,7 +2983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3004,7 +3004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3015,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3025,7 +3025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3051,7 +3051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3062,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3072,7 +3072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3083,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3098,7 +3098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3109,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3119,7 +3119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3130,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,7 +3140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3151,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,7 +3166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,7 +3187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3198,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3208,7 +3208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3219,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3234,7 +3234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3245,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3266,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3276,7 +3276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3287,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3313,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3323,7 +3323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3334,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3344,7 +3344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3355,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3365,7 +3365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3376,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3391,7 +3391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3402,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3412,7 +3412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3438,7 +3438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3459,7 +3459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3491,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3506,7 +3506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3517,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3527,7 +3527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3538,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3574,7 +3574,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3585,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,7 +3595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3606,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3616,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3627,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3642,7 +3642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3653,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3684,7 +3684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3695,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3721,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3731,7 +3731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3742,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3752,7 +3752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3763,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3773,7 +3773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3784,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3805,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,7 +3815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3826,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3836,7 +3836,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3847,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,7 +3857,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3878,7 +3878,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3889,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3904,7 +3904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3915,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,7 +3930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3941,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3951,7 +3951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3977,7 +3977,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3988,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3998,7 +3998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4009,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4051,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4061,7 +4061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4087,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4098,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4108,7 +4108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4119,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4129,7 +4129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4140,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4155,7 +4155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4166,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4176,7 +4176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4187,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4202,7 +4202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4213,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4223,7 +4223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4234,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4249,7 +4249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4260,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4270,7 +4270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4281,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4291,7 +4291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4302,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4312,7 +4312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4323,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4333,7 +4333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4344,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4359,7 +4359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4370,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4380,7 +4380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4391,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4401,7 +4401,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4412,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4422,7 +4422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4433,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,7 +4448,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4469,7 +4469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4480,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4490,7 +4490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4501,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4511,7 +4511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4522,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4532,7 +4532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4543,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4558,7 +4558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4569,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4579,7 +4579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4590,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4600,7 +4600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4611,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4621,7 +4621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4632,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4642,7 +4642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4653,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4668,7 +4668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4679,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4694,7 +4694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4705,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4715,7 +4715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4726,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4736,7 +4736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4747,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4757,7 +4757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4768,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4783,7 +4783,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4794,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4804,7 +4804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4815,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4830,7 +4830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4841,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4851,7 +4851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4872,7 +4872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4883,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4893,7 +4893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4904,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4919,7 +4919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4940,7 +4940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4951,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4961,7 +4961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4972,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4982,7 +4982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4993,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5008,7 +5008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5018,7 +5018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5029,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5039,7 +5039,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5050,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5060,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5081,7 +5081,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5092,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5102,7 +5102,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5113,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,7 +5123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5144,7 +5144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5155,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5171,13 +5171,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5193,14 +5193,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5208,7 +5208,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5352,34 +5352,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8853,13 +8852,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36286</xdr:colOff>
+      <xdr:colOff>97972</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
@@ -8876,8 +8875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14605000" y="8935357"/>
-          <a:ext cx="3873500" cy="4154714"/>
+          <a:off x="13269686" y="6905171"/>
+          <a:ext cx="2405743" cy="3207657"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -8911,6 +8910,165 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>163288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形: 圆角 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFD335D-0F01-0953-DFDF-264DA3EB313F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13302342" y="7228115"/>
+          <a:ext cx="1153886" cy="272144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>主题</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CHAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>163288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形: 圆角 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC369AA2-5E83-48DC-810E-7EDC35007CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14488886" y="7228115"/>
+          <a:ext cx="1153886" cy="272144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>小助手</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9184,11 +9342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:V139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF44" sqref="AF44"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE48" sqref="AE48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -9205,95 +9363,53 @@
     </row>
     <row r="6" spans="4:11">
       <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="4:11">
       <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="4:11">
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="4:11">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="4:11" ht="15.6">
       <c r="D9" s="5"/>
       <c r="E9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="4:11">
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="4:11">
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="4:11">
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="4:11">
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="4:11">
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="20" spans="4:11">
       <c r="D20" s="2"/>
@@ -9307,93 +9423,45 @@
     </row>
     <row r="21" spans="4:11">
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="4:11">
       <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="4:11">
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="4:11">
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="4:11">
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="4:11">
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="4:11">
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="4:11">
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="32" spans="4:11">
       <c r="D32" s="2"/>
@@ -9407,93 +9475,45 @@
     </row>
     <row r="33" spans="4:21">
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="4:21">
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="4:21">
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="4:21">
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="4:21">
       <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="4:21">
       <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="4:21">
       <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="4:21">
       <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="7"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="43" spans="4:21">
       <c r="D43" s="2"/>
@@ -9515,165 +9535,69 @@
     </row>
     <row r="44" spans="4:21">
       <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="6"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="7"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="45" spans="4:21">
       <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="6"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="7"/>
+      <c r="U45" s="6"/>
     </row>
     <row r="46" spans="4:21">
       <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="6"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="7"/>
+      <c r="U46" s="6"/>
     </row>
     <row r="47" spans="4:21">
       <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="6"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="7"/>
+      <c r="U47" s="6"/>
     </row>
     <row r="48" spans="4:21">
       <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="6"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="7"/>
+      <c r="U48" s="6"/>
     </row>
     <row r="49" spans="4:21">
       <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="6"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="7"/>
+      <c r="U49" s="6"/>
     </row>
     <row r="50" spans="4:21">
       <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="6"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="7"/>
+      <c r="U50" s="6"/>
     </row>
     <row r="51" spans="4:21">
       <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="6"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="7"/>
+      <c r="U51" s="6"/>
     </row>
     <row r="52" spans="4:21">
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="10"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="9"/>
     </row>
     <row r="54" spans="4:21">
       <c r="D54" s="2"/>
@@ -9687,109 +9611,61 @@
     </row>
     <row r="55" spans="4:21">
       <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="4:21">
       <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="4:21">
       <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="4:21">
       <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="7"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="4:21">
       <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="4:21">
       <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="4:21">
       <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" spans="4:21">
       <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" spans="4:21">
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="10"/>
-    </row>
-    <row r="67" spans="4:22">
-      <c r="D67" s="15" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="67" spans="4:22" ht="15.6">
+      <c r="D67" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:22">
-      <c r="D68" s="15" t="s">
+    <row r="68" spans="4:22" ht="15.6">
+      <c r="D68" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="4:22">
-      <c r="D69" s="15"/>
+    <row r="69" spans="4:22" ht="15.6">
+      <c r="D69" s="11"/>
     </row>
     <row r="71" spans="4:22">
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9843,7 +9719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="15:22">
+    <row r="88" spans="15:22" ht="15.6">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -9860,7 +9736,7 @@
       </c>
     </row>
     <row r="90" spans="15:22">
-      <c r="O90" s="16" t="s">
+      <c r="O90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="V90" s="1" t="s">
@@ -9884,7 +9760,7 @@
       </c>
     </row>
     <row r="93" spans="15:22">
-      <c r="O93" s="16" t="s">
+      <c r="O93" s="12" t="s">
         <v>8</v>
       </c>
       <c r="V93" s="1" t="s">
@@ -9913,7 +9789,7 @@
       </c>
     </row>
     <row r="97" spans="15:22">
-      <c r="O97" s="16" t="s">
+      <c r="O97" s="12" t="s">
         <v>12</v>
       </c>
       <c r="V97" s="1" t="s">
@@ -9952,7 +9828,7 @@
       </c>
     </row>
     <row r="103" spans="15:22">
-      <c r="O103" s="16" t="s">
+      <c r="O103" s="12" t="s">
         <v>16</v>
       </c>
       <c r="V103" s="1" t="s">
@@ -9960,7 +9836,7 @@
       </c>
     </row>
     <row r="104" spans="15:22">
-      <c r="O104" s="16" t="s">
+      <c r="O104" s="12" t="s">
         <v>17</v>
       </c>
       <c r="V104" s="1" t="s">
@@ -10108,7 +9984,7 @@
       </c>
     </row>
     <row r="139" spans="22:22">
-      <c r="V139" s="16" t="s">
+      <c r="V139" s="12" t="s">
         <v>72</v>
       </c>
     </row>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190629D-B1AA-4E85-AB47-8D79153158FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5213FC-B93C-40F7-826B-A62EC60F5189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Search Input Area（高级搜索）</t>
     <phoneticPr fontId="1"/>
@@ -50,7 +50,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,7 +92,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,7 +134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -145,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -228,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,7 +243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -296,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +342,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -379,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -656,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -724,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -745,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +755,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +812,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -844,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,7 +896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,7 +932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -953,7 +953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,7 +995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1089,7 +1089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1100,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,7 +1173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1226,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1268,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +1283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1315,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,7 +1351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1362,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1372,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1404,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1419,7 +1419,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,7 +1461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1472,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1493,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1550,7 +1550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1613,7 +1613,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1634,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,7 +1660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1671,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1749,7 +1749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1775,7 +1775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1786,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,7 +1796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1807,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1822,7 +1822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1843,7 +1843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1885,7 +1885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1917,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1932,7 +1932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1943,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1953,7 +1953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2000,7 +2000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2026,7 +2026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2126,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2157,7 +2157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2168,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2183,7 +2183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2215,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2241,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2251,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2262,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2272,7 +2272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2283,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2330,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2340,7 +2340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2351,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2366,7 +2366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2377,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2392,7 +2392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2403,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2439,7 +2439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2471,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2497,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2518,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2539,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2596,7 +2596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2607,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2617,7 +2617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2628,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2638,7 +2638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2649,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2659,7 +2659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2670,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2711,7 +2711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2722,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2732,7 +2732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2743,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2758,7 +2758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2769,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2800,7 +2800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2811,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2821,7 +2821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2832,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2842,7 +2842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2853,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2868,7 +2868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2879,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2889,7 +2889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,7 +2910,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2921,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2936,7 +2936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2947,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2962,7 +2962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2973,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2983,7 +2983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3004,7 +3004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3015,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3025,7 +3025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3051,7 +3051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3062,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3072,7 +3072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3083,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3098,7 +3098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3109,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3119,7 +3119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3130,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,7 +3140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3151,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,7 +3166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,7 +3187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3198,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3208,7 +3208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3219,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3234,7 +3234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3245,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3266,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3276,7 +3276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3287,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3313,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3323,7 +3323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3334,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3344,7 +3344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3355,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3365,7 +3365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3376,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3391,7 +3391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3402,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3412,7 +3412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3438,7 +3438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3459,7 +3459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3491,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3506,7 +3506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3517,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3527,7 +3527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3538,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3574,7 +3574,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3585,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,7 +3595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3606,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3616,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3627,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3642,7 +3642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3653,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3684,7 +3684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3695,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3721,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3731,7 +3731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3742,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3752,7 +3752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3763,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3773,7 +3773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3784,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3805,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,7 +3815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3826,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3836,7 +3836,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3847,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,7 +3857,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3878,7 +3878,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3889,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3904,7 +3904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3915,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,7 +3930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3941,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3951,7 +3951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3977,7 +3977,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3988,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3998,7 +3998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4009,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4051,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4061,7 +4061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4087,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4098,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4108,7 +4108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4119,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4129,7 +4129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4140,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4155,7 +4155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4166,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4176,7 +4176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4187,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4202,7 +4202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4213,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4223,7 +4223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4234,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4249,7 +4249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4260,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4270,7 +4270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4281,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4291,7 +4291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4302,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4312,7 +4312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4323,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4333,7 +4333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4344,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4359,7 +4359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4370,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4380,7 +4380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4391,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4401,7 +4401,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4412,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4422,7 +4422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4433,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,7 +4448,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4469,7 +4469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4480,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4490,7 +4490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4501,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4511,7 +4511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4522,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4532,7 +4532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4543,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4558,7 +4558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4569,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4579,7 +4579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4590,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4600,7 +4600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4611,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4621,7 +4621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4632,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4642,7 +4642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4653,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4668,7 +4668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4679,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4694,7 +4694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4705,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4715,7 +4715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4726,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4736,7 +4736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4747,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4757,7 +4757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4768,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4783,7 +4783,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4794,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4804,7 +4804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4815,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4830,7 +4830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4841,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4851,7 +4851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4872,7 +4872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4883,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4893,7 +4893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4904,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4919,7 +4919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4940,7 +4940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4951,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4961,7 +4961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4972,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4982,7 +4982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4993,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5008,7 +5008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5018,7 +5018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5029,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5039,7 +5039,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5050,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5060,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5081,7 +5081,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5092,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5102,7 +5102,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5113,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,7 +5123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5144,7 +5144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5155,11 +5155,240 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>整，以确保分析的全面性和准确性。</t>
+    </r>
+  </si>
+  <si>
+    <t>🧠 二、建议具备的特色功能</t>
+  </si>
+  <si>
+    <t>✅ 1. “内在价值估值器”</t>
+  </si>
+  <si>
+    <t>输入增长预期、折现率等参数，计算一个公司合理的价格区间</t>
+  </si>
+  <si>
+    <t>与当前市价对比，给出“安全边际”参考</t>
+  </si>
+  <si>
+    <t>✅ 2. 长期稳健公司库</t>
+  </si>
+  <si>
+    <t>提前筛选出近10年财务稳健、增长稳定、分红连续的公司</t>
+  </si>
+  <si>
+    <t>类似“价值投资精选白名单”</t>
+  </si>
+  <si>
+    <t>✅ 3. 价值投资策略模拟器</t>
+  </si>
+  <si>
+    <t>允许用户模拟构建基于估值的投资组合（比如“低PE + 高ROE组合”）</t>
+  </si>
+  <si>
+    <t>跟踪回测其 3~10 年表现</t>
+  </si>
+  <si>
+    <t>✅ 4. 动态估值提醒机制</t>
+  </si>
+  <si>
+    <t>某只价值股跌破“合理估值区”时自动提示</t>
+  </si>
+  <si>
+    <t>提供“估值回归空间”计算（比如当前 PE 5，历史均值是 12）</t>
+  </si>
+  <si>
+    <t>慢</t>
+  </si>
+  <si>
+    <t>稳</t>
+  </si>
+  <si>
+    <t>透</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
+    <r>
+      <t>重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、避免短期炒作、鼓励持有</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与抗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>信息透明，披露源清晰、可复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提供深入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拆解与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逻辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分析</t>
     </r>
   </si>
 </sst>
@@ -5167,17 +5396,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5193,14 +5422,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5208,9 +5437,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5352,7 +5599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5375,10 +5622,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5611,6 +5868,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPI</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -6099,169 +6364,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226785</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F29545C-E37F-10FC-98C7-2C0AA8A31573}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6186714" y="4626429"/>
-          <a:ext cx="952500" cy="1814285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>589643</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>117928</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0786F5A7-9AFA-4E9E-9409-73D0FE8DA3B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7483929" y="4345214"/>
-          <a:ext cx="1714500" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67175"/>
-            <a:gd name="adj2" fmla="val 22024"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>滚动消息栏</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>灵感参考弹幕 链接？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -6407,15 +6509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18145</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:colOff>27219</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>625931</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:colOff>635005</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>217716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6430,7 +6532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2004788" y="7502072"/>
+          <a:off x="2013862" y="7275287"/>
           <a:ext cx="1270000" cy="653143"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6726,16 +6828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399142</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6750,13 +6852,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556000" y="4109356"/>
+          <a:off x="4372428" y="5551713"/>
           <a:ext cx="1714500" cy="526143"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80932"/>
-            <a:gd name="adj2" fmla="val 87500"/>
+            <a:gd name="adj1" fmla="val -129080"/>
+            <a:gd name="adj2" fmla="val -138362"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -6949,7 +7051,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>分析</a:t>
+            <a:t>价分</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -6965,8 +7067,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>36286</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -6987,8 +7089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022929" y="10241643"/>
-          <a:ext cx="4526642" cy="1288143"/>
+          <a:off x="8645072" y="10513786"/>
+          <a:ext cx="4526641" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7341,151 +7443,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>335644</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>90713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>290286</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>154213</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D38015D-830A-40F4-B005-1C5710A940C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9606644" y="10296070"/>
-          <a:ext cx="3265713" cy="1197429"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62913"/>
-            <a:gd name="adj2" fmla="val -54925"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>概要：日线图（主图） 指标图（副图）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>分析：价值分析图（基本维度展示 支持自定义权重）→ 多维度分析图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>资金埋伏等分析图，分析师建议</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>财报：各指标图表</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>公司：基本信息，产业链</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18142</xdr:colOff>
       <xdr:row>42</xdr:row>
@@ -7721,325 +7678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:colOff>99785</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>644070</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>208642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9D0102-A708-488E-9F29-F31191F5D317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2013856" y="9552213"/>
-          <a:ext cx="616857" cy="181429"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一览</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>644070</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>208642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="四角形: 角を丸くする 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFCA1DB-CCE2-4C46-805F-0A43F107AE9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2676070" y="9552213"/>
-          <a:ext cx="616857" cy="181429"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>详情</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>644070</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>208642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DA1E3F-69E9-484A-8C49-F8376EBDB328}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2013856" y="9552213"/>
-          <a:ext cx="616857" cy="181429"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一览</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>644070</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>208642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E0B49C-B0E5-4DA8-BC0A-6CB0B40871C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2676070" y="9552213"/>
-          <a:ext cx="616857" cy="181429"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>详情</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>208642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>616857</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526142</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8054,7 +7701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2839357" y="12455071"/>
+          <a:off x="2086428" y="12282714"/>
           <a:ext cx="5061857" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -8193,7 +7840,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>净流入（</a:t>
+            <a:t>净流入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>流出（</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
@@ -8233,14 +7896,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>36286</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8255,7 +7918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8645072" y="11602357"/>
+          <a:off x="8645072" y="12083148"/>
           <a:ext cx="4535713" cy="1260930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8309,14 +7972,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99785</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390071</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226784</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
@@ -8333,7 +7996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4073071" y="10940144"/>
+          <a:off x="3038928" y="10940144"/>
           <a:ext cx="1161142" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8532,9 +8195,49 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>关键字组合 查询功能</a:t>
+            <a:t>关键字</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 组合查询（医药 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增速）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个股直接跳转详细？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8546,16 +8249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>644073</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8570,8 +8273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271501" y="10250714"/>
-          <a:ext cx="616858" cy="1270000"/>
+          <a:off x="8654143" y="10250714"/>
+          <a:ext cx="4517571" cy="226786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8758,95 +8461,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>281213</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>453571</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="思考の吹き出し: 雲形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03C5CDC-D6AF-9B92-48B0-C49DE8D07BFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13525499" y="9688285"/>
-          <a:ext cx="834572" cy="371929"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloudCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -117572"/>
-            <a:gd name="adj2" fmla="val 135671"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HAT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9069,6 +8683,1184 @@
             </a:rPr>
             <a:t>小助手</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>644070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>208641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657756CD-D4FA-4887-9ED6-BA158E30219A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4662713" y="934356"/>
+          <a:ext cx="616857" cy="181428"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>量化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442686</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>134259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4658B8-9851-4C54-BAE1-9684BA232953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753757" y="10938330"/>
+          <a:ext cx="1161142" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>资金榜</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>145144</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D38015D-830A-40F4-B005-1C5710A940C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9416144" y="10495643"/>
+          <a:ext cx="4962070" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44266"/>
+            <a:gd name="adj2" fmla="val -80975"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>概要：日线图（主图） 指标图（副图）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分析：价值分析图（基本维度展示 支持自定义权重）→ 多维度分析图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>资金埋伏等分析图，分析师建议</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>财报：各指标图表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公司：基本信息，产业链</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FDD367-D1CD-40C4-97EF-D5070D7632BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8645071" y="11602356"/>
+          <a:ext cx="4517571" cy="426357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>价值维度→从品论和讨论中选择 赞同最多的 讨论最多的 转换成标签 在此显示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553356</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: 上の 2 つの角を丸める 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F13E6D-21D9-43E3-A44A-2080A5C28E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3383642" y="4780643"/>
+          <a:ext cx="1143000" cy="426357"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PMI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指标线图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99781</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>226784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 上の 2 つの角を丸める 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB8ABEE-5D7C-44F4-8E27-353D1D3D6711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2086424" y="5243284"/>
+          <a:ext cx="1143000" cy="426357"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指标线图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90710</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571496</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>226784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形: 上の 2 つの角を丸める 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1A9297-F010-4C07-AF8A-8EC9E4071753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2077353" y="5696856"/>
+          <a:ext cx="1143000" cy="426357"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指标线图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81639</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>226784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形: 上の 2 つの角を丸める 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D11C08C-68A6-4011-B69F-963F7D315CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068282" y="6150427"/>
+          <a:ext cx="1143000" cy="426357"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指标线图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形: 角を丸くする 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D2DC1F-5594-4152-9CB7-BE25A71441C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013856" y="7955642"/>
+          <a:ext cx="1270000" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分类热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="四角形: 角を丸くする 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A058FBDB-4A50-4F42-B899-42773784CFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013856" y="8635999"/>
+          <a:ext cx="1270000" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分类热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6FE96B-DFEA-4EE9-A106-2F43E7D315AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013856" y="4535714"/>
+          <a:ext cx="4826000" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>宏观热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36284</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226784</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F86EBE-2678-4712-8E8B-C297646BF7B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2022927" y="9543142"/>
+          <a:ext cx="4826000" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>市场热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>72568</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263068</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62885D82-B2B1-4075-BE99-199FDB126646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2059211" y="12028714"/>
+          <a:ext cx="4826000" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>市场热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>453569</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>625927</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="思考の吹き出し: 雲形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03C5CDC-D6AF-9B92-48B0-C49DE8D07BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14360069" y="8953499"/>
+          <a:ext cx="834572" cy="371929"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -117572"/>
+            <a:gd name="adj2" fmla="val 135671"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HAT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9342,11 +10134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:V139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE48" sqref="AE48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -9373,7 +10165,7 @@
       <c r="D8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="4:11" ht="15.6">
+    <row r="9" spans="4:11">
       <c r="D9" s="5"/>
       <c r="E9" s="13" t="s">
         <v>0</v>
@@ -9651,17 +10443,17 @@
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="67" spans="4:22" ht="15.6">
+    <row r="67" spans="4:22">
       <c r="D67" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:22" ht="15.6">
+    <row r="68" spans="4:22">
       <c r="D68" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="4:22" ht="15.6">
+    <row r="69" spans="4:22">
       <c r="D69" s="11"/>
     </row>
     <row r="71" spans="4:22">
@@ -9719,7 +10511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="15:22" ht="15.6">
+    <row r="88" spans="15:22">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -9788,7 +10580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="15:22">
+    <row r="97" spans="12:22">
       <c r="O97" s="12" t="s">
         <v>12</v>
       </c>
@@ -9796,17 +10588,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="15:22">
+    <row r="98" spans="12:22">
       <c r="V98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="15:22">
+    <row r="99" spans="12:22">
       <c r="V99" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="15:22">
+    <row r="100" spans="12:22">
       <c r="O100" s="1" t="s">
         <v>13</v>
       </c>
@@ -9814,12 +10606,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="15:22">
+    <row r="101" spans="12:22">
       <c r="O101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="15:22">
+    <row r="102" spans="12:22">
       <c r="O102" s="1" t="s">
         <v>15</v>
       </c>
@@ -9827,7 +10619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="15:22">
+    <row r="103" spans="12:22">
       <c r="O103" s="12" t="s">
         <v>16</v>
       </c>
@@ -9835,7 +10627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="15:22">
+    <row r="104" spans="12:22">
       <c r="O104" s="12" t="s">
         <v>17</v>
       </c>
@@ -9843,147 +10635,232 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="15:22">
+    <row r="105" spans="12:22">
       <c r="V105" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="15:22">
+    <row r="106" spans="12:22">
       <c r="V106" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="15:22">
+    <row r="108" spans="12:22">
       <c r="V108" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="15:22">
+    <row r="109" spans="12:22" ht="29">
+      <c r="L109" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="V109" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="15:22">
+    <row r="110" spans="12:22">
+      <c r="L110"/>
       <c r="V110" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="15:22">
+    <row r="111" spans="12:22" ht="22">
+      <c r="L111" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="V111" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="15:22">
+    <row r="112" spans="12:22">
+      <c r="L112" s="18"/>
       <c r="V112" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="22:22">
+    <row r="113" spans="12:22">
+      <c r="L113" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="12:22">
+      <c r="L114" s="18"/>
       <c r="V114" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="22:22">
+    <row r="115" spans="12:22">
+      <c r="L115" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="V115" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="22:22">
+    <row r="116" spans="12:22">
+      <c r="L116"/>
       <c r="V116" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="22:22">
+    <row r="117" spans="12:22" ht="22">
+      <c r="L117" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="V117" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="22:22">
+    <row r="118" spans="12:22">
+      <c r="L118" s="18"/>
       <c r="V118" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="22:22">
+    <row r="119" spans="12:22">
+      <c r="L119" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="V119" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="22:22">
+    <row r="120" spans="12:22">
+      <c r="L120" s="18"/>
+    </row>
+    <row r="121" spans="12:22">
+      <c r="L121" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="V121" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="22:22">
+    <row r="122" spans="12:22">
+      <c r="L122"/>
       <c r="V122" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="22:22">
+    <row r="123" spans="12:22" ht="22">
+      <c r="L123" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="V123" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="22:22">
+    <row r="124" spans="12:22">
+      <c r="L124" s="18"/>
       <c r="V124" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="22:22">
+    <row r="125" spans="12:22">
+      <c r="L125" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="V125" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="22:22">
+    <row r="126" spans="12:22">
+      <c r="L126" s="18"/>
+    </row>
+    <row r="127" spans="12:22">
+      <c r="L127" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="V127" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="22:22">
+    <row r="128" spans="12:22">
+      <c r="L128"/>
       <c r="V128" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="22:22">
+    <row r="129" spans="12:22" ht="22">
+      <c r="L129" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="V129" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="22:22">
+    <row r="130" spans="12:22">
+      <c r="L130" s="18"/>
       <c r="V130" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="22:22">
+    <row r="131" spans="12:22">
+      <c r="L131" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="V131" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="22:22">
+    <row r="132" spans="12:22">
+      <c r="L132" s="18"/>
+    </row>
+    <row r="133" spans="12:22">
+      <c r="L133" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="V133" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="22:22">
+    <row r="134" spans="12:22">
       <c r="V134" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="22:22">
+    <row r="135" spans="12:22">
       <c r="V135" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="22:22">
+    <row r="136" spans="12:22">
+      <c r="L136" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="V136" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="22:22">
+    <row r="137" spans="12:22">
+      <c r="L137" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M137" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="V137" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="22:22">
+    <row r="138" spans="12:22">
+      <c r="L138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="12:22">
+      <c r="L139" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="V139" s="12" t="s">
         <v>72</v>
       </c>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5213FC-B93C-40F7-826B-A62EC60F5189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C9993-1C07-4B19-A3EF-51C670BC1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,7 +92,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,7 +134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -145,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -228,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,7 +243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -296,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +342,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -379,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -656,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -724,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -745,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +755,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +812,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -844,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,7 +896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +922,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,7 +932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -953,7 +953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,7 +995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1089,7 +1089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1100,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,7 +1173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1226,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1268,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +1283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1315,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,7 +1351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1362,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1372,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1404,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1419,7 +1419,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,7 +1461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1472,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1493,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1550,7 +1550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1613,7 +1613,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1634,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,7 +1660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1671,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1749,7 +1749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1775,7 +1775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1786,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,7 +1796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1807,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1822,7 +1822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1843,7 +1843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1885,7 +1885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1917,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1932,7 +1932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1943,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1953,7 +1953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1979,7 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2000,7 +2000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2026,7 +2026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2126,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2157,7 +2157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2168,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2183,7 +2183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2215,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2241,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2251,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2262,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2272,7 +2272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2283,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2330,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2340,7 +2340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2351,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2366,7 +2366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2377,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2392,7 +2392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2403,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2439,7 +2439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2471,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2497,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2518,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2539,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2596,7 +2596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2607,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2617,7 +2617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2628,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2638,7 +2638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2649,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2659,7 +2659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2670,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2711,7 +2711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2722,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2732,7 +2732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2743,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2758,7 +2758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2769,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2800,7 +2800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2811,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2821,7 +2821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2832,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2842,7 +2842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2853,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2868,7 +2868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2879,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2889,7 +2889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,7 +2910,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2921,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2936,7 +2936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2947,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2962,7 +2962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2973,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2983,7 +2983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3004,7 +3004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3015,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3025,7 +3025,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3051,7 +3051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3062,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3072,7 +3072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3083,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3098,7 +3098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3109,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3119,7 +3119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3130,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,7 +3140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3151,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,7 +3166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,7 +3187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3198,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3208,7 +3208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3219,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3234,7 +3234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3245,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3266,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3276,7 +3276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3287,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3313,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3323,7 +3323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3334,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3344,7 +3344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3355,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3365,7 +3365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3376,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3391,7 +3391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3402,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3412,7 +3412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3438,7 +3438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3459,7 +3459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3491,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3506,7 +3506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3517,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3527,7 +3527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3538,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3574,7 +3574,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3585,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,7 +3595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3606,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3616,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3627,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3642,7 +3642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3653,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3684,7 +3684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3695,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3721,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3731,7 +3731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3742,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3752,7 +3752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3763,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3773,7 +3773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3784,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3805,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,7 +3815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3826,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3836,7 +3836,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3847,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,7 +3857,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3878,7 +3878,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3889,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3904,7 +3904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3915,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,7 +3930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3941,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3951,7 +3951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3977,7 +3977,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3988,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3998,7 +3998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4009,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4051,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4061,7 +4061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4087,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4098,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4108,7 +4108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4119,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4129,7 +4129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4140,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4155,7 +4155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4166,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4176,7 +4176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4187,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4202,7 +4202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4213,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4223,7 +4223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4234,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4249,7 +4249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4260,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4270,7 +4270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4281,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4291,7 +4291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4302,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4312,7 +4312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4323,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4333,7 +4333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4344,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4359,7 +4359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4370,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4380,7 +4380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4391,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4401,7 +4401,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4412,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4422,7 +4422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4433,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,7 +4448,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4469,7 +4469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4480,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4490,7 +4490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4501,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4511,7 +4511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4522,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4532,7 +4532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4543,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4558,7 +4558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4569,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4579,7 +4579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4590,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4600,7 +4600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4611,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4621,7 +4621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4632,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4642,7 +4642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4653,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4668,7 +4668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4679,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4694,7 +4694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4705,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4715,7 +4715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4726,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4736,7 +4736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4747,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4757,7 +4757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4768,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4783,7 +4783,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4794,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4804,7 +4804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4815,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4830,7 +4830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4841,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4851,7 +4851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4872,7 +4872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4883,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4893,7 +4893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4904,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4919,7 +4919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4940,7 +4940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4951,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4961,7 +4961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4972,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4982,7 +4982,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4993,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5008,7 +5008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5018,7 +5018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5029,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5039,7 +5039,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5050,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5060,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5081,7 +5081,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5092,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5102,7 +5102,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5113,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,7 +5123,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5144,7 +5144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5155,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5221,7 +5221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5232,7 +5232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5242,7 +5242,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -5253,7 +5253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5268,7 +5268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5279,7 +5279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5289,7 +5289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5300,7 +5300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5310,7 +5310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5321,7 +5321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5336,7 +5336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5352,7 +5352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5363,7 +5363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5373,7 +5373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5384,7 +5384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5400,13 +5400,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5422,14 +5422,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5437,7 +5437,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5446,7 +5446,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5455,7 +5455,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5613,15 +5613,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5632,10 +5623,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5811,15 +5811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>108859</xdr:colOff>
+      <xdr:colOff>65317</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
+      <xdr:rowOff>48987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>589645</xdr:colOff>
+      <xdr:colOff>546103</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5834,8 +5834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095502" y="4789716"/>
-          <a:ext cx="1143000" cy="426357"/>
+          <a:off x="1861460" y="3728358"/>
+          <a:ext cx="1079500" cy="321129"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -6828,16 +6828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399142</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518885</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>181427</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246742</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6852,8 +6852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372428" y="5551713"/>
-          <a:ext cx="1714500" cy="526143"/>
+          <a:off x="8900885" y="5366657"/>
+          <a:ext cx="1524000" cy="413294"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -7445,13 +7445,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18142</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7523,13 +7523,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>616857</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>172357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7601,13 +7601,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99786</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7679,13 +7679,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99785</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>526142</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7974,13 +7974,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390071</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>226784</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8052,13 +8052,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>535214</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8429,8 +8429,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>235858</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>176126</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8770,13 +8770,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>442686</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>52616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>134259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9072,13 +9072,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>72571</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>553356</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9093,8 +9093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3383642" y="4780643"/>
-          <a:ext cx="1143000" cy="426357"/>
+          <a:off x="3066142" y="3751942"/>
+          <a:ext cx="1079500" cy="328023"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -9135,240 +9135,6 @@
             </a:rPr>
             <a:t>PMI</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>指标线图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99781</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>580567</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>226784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="四角形: 上の 2 つの角を丸める 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB8ABEE-5D7C-44F4-8E27-353D1D3D6711}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2086424" y="5243284"/>
-          <a:ext cx="1143000" cy="426357"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>指标线图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90710</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571496</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>226784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="四角形: 上の 2 つの角を丸める 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1A9297-F010-4C07-AF8A-8EC9E4071753}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2077353" y="5696856"/>
-          <a:ext cx="1143000" cy="426357"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>指标线图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81639</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>562425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>226784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="四角形: 上の 2 つの角を丸める 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D11C08C-68A6-4011-B69F-963F7D315CF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2068282" y="6150427"/>
-          <a:ext cx="1143000" cy="426357"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -9546,15 +9312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>201385</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9569,8 +9335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013856" y="4535714"/>
-          <a:ext cx="4826000" cy="217715"/>
+          <a:off x="1997528" y="4310743"/>
+          <a:ext cx="4239987" cy="522514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9609,7 +9375,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>宏观热点</a:t>
+            <a:t>宏观热点信息</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9625,13 +9391,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>36284</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226784</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9703,13 +9469,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>72568</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>263068</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9855,6 +9621,84 @@
               </a:solidFill>
             </a:rPr>
             <a:t>HAT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30843</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1984736D-AAEA-4319-AF70-AE3A58EB455D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1856014" y="7725227"/>
+          <a:ext cx="1168400" cy="502194"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指数简图</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -10132,13 +9976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:V139"/>
+  <dimension ref="D5:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -10165,16 +10009,16 @@
       <c r="D8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:11" ht="15.6">
       <c r="D9" s="5"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="4:11">
@@ -10391,127 +10235,145 @@
       <c r="T52" s="8"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="54" spans="4:21">
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="4:21">
-      <c r="D55" s="5"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="4:21">
-      <c r="D56" s="5"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="4:21">
-      <c r="D57" s="5"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="4:21">
-      <c r="D58" s="5"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="4:21">
-      <c r="D59" s="5"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="4:21">
-      <c r="D60" s="5"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="4:21">
-      <c r="D61" s="5"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="4:21">
-      <c r="D62" s="5"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="4:21">
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
+    <row r="66" spans="4:22">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="4:22">
-      <c r="D67" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D67" s="5"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="4:22">
-      <c r="D68" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="D68" s="5"/>
+      <c r="K68" s="6"/>
     </row>
     <row r="69" spans="4:22">
-      <c r="D69" s="11"/>
+      <c r="D69" s="5"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="4:22">
+      <c r="D70" s="5"/>
+      <c r="K70" s="6"/>
     </row>
     <row r="71" spans="4:22">
-      <c r="D71" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="D71" s="5"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="4:22">
+      <c r="D72" s="5"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="4:22">
+      <c r="D73" s="5"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="4:22">
+      <c r="D74" s="5"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="4:22">
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" spans="4:22">
       <c r="V76" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="77" spans="4:22">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="4"/>
+    </row>
     <row r="78" spans="4:22">
+      <c r="D78" s="5"/>
+      <c r="K78" s="6"/>
       <c r="V78" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="4:22">
+      <c r="D79" s="5"/>
+      <c r="K79" s="6"/>
       <c r="V79" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="80" spans="4:22">
+      <c r="D80" s="5"/>
+      <c r="K80" s="6"/>
       <c r="V80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="15:22">
+    <row r="81" spans="4:22">
+      <c r="D81" s="5"/>
+      <c r="K81" s="6"/>
       <c r="V81" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="15:22">
+    <row r="82" spans="4:22">
+      <c r="D82" s="5"/>
+      <c r="K82" s="6"/>
       <c r="V82" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="15:22">
+    <row r="83" spans="4:22">
+      <c r="D83" s="5"/>
+      <c r="K83" s="6"/>
       <c r="V83" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="15:22">
+    <row r="84" spans="4:22">
+      <c r="D84" s="5"/>
+      <c r="K84" s="6"/>
       <c r="V84" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="15:22">
+    <row r="85" spans="4:22">
+      <c r="D85" s="5"/>
+      <c r="K85" s="6"/>
       <c r="V85" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="15:22">
+    <row r="86" spans="4:22">
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="4:22">
       <c r="V87" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="15:22">
+    <row r="88" spans="4:22" ht="15.6">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -10519,7 +10381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="15:22">
+    <row r="89" spans="4:22">
       <c r="O89" s="1" t="s">
         <v>4</v>
       </c>
@@ -10527,7 +10389,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="15:22">
+    <row r="90" spans="4:22" ht="15.6">
+      <c r="D90" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="O90" s="12" t="s">
         <v>5</v>
       </c>
@@ -10535,7 +10400,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="15:22">
+    <row r="91" spans="4:22" ht="15.6">
+      <c r="D91" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="O91" s="1" t="s">
         <v>6</v>
       </c>
@@ -10543,7 +10411,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="15:22">
+    <row r="92" spans="4:22" ht="15.6">
+      <c r="D92" s="11"/>
       <c r="O92" s="1" t="s">
         <v>7</v>
       </c>
@@ -10551,7 +10420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="15:22">
+    <row r="93" spans="4:22">
       <c r="O93" s="12" t="s">
         <v>8</v>
       </c>
@@ -10559,12 +10428,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="15:22">
+    <row r="94" spans="4:22">
+      <c r="D94" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="O94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="15:22">
+    <row r="95" spans="4:22">
       <c r="O95" s="1" t="s">
         <v>10</v>
       </c>
@@ -10572,7 +10444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="15:22">
+    <row r="96" spans="4:22">
       <c r="O96" s="1" t="s">
         <v>11</v>
       </c>
@@ -10580,7 +10452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="12:22">
+    <row r="97" spans="15:22">
       <c r="O97" s="12" t="s">
         <v>12</v>
       </c>
@@ -10588,17 +10460,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="12:22">
+    <row r="98" spans="15:22">
       <c r="V98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="12:22">
+    <row r="99" spans="15:22">
       <c r="V99" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="12:22">
+    <row r="100" spans="15:22">
       <c r="O100" s="1" t="s">
         <v>13</v>
       </c>
@@ -10606,12 +10478,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="12:22">
+    <row r="101" spans="15:22">
       <c r="O101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="12:22">
+    <row r="102" spans="15:22">
       <c r="O102" s="1" t="s">
         <v>15</v>
       </c>
@@ -10619,7 +10491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="12:22">
+    <row r="103" spans="15:22">
       <c r="O103" s="12" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="12:22">
+    <row r="104" spans="15:22">
       <c r="O104" s="12" t="s">
         <v>17</v>
       </c>
@@ -10635,234 +10507,270 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="12:22">
+    <row r="105" spans="15:22">
       <c r="V105" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="12:22">
+    <row r="106" spans="15:22">
       <c r="V106" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="12:22">
+    <row r="108" spans="15:22">
       <c r="V108" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="12:22" ht="29">
-      <c r="L109" s="16" t="s">
-        <v>73</v>
-      </c>
+    <row r="109" spans="15:22">
       <c r="V109" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="12:22">
-      <c r="L110"/>
+    <row r="110" spans="15:22">
       <c r="V110" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="12:22" ht="22">
-      <c r="L111" s="17" t="s">
-        <v>74</v>
-      </c>
+    <row r="111" spans="15:22">
       <c r="V111" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="12:22">
-      <c r="L112" s="18"/>
+    <row r="112" spans="15:22">
       <c r="V112" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="12:22">
-      <c r="L113" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" spans="12:22">
-      <c r="L114" s="18"/>
+    <row r="114" spans="22:22">
       <c r="V114" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="12:22">
-      <c r="L115" s="18" t="s">
-        <v>76</v>
-      </c>
+    <row r="115" spans="22:22">
       <c r="V115" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="12:22">
-      <c r="L116"/>
+    <row r="116" spans="22:22">
       <c r="V116" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="12:22" ht="22">
-      <c r="L117" s="17" t="s">
-        <v>77</v>
-      </c>
+    <row r="117" spans="22:22">
       <c r="V117" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="12:22">
-      <c r="L118" s="18"/>
+    <row r="118" spans="22:22">
       <c r="V118" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="12:22">
-      <c r="L119" s="18" t="s">
-        <v>78</v>
-      </c>
+    <row r="119" spans="22:22">
       <c r="V119" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="12:22">
-      <c r="L120" s="18"/>
-    </row>
-    <row r="121" spans="12:22">
-      <c r="L121" s="18" t="s">
-        <v>79</v>
-      </c>
+    <row r="121" spans="22:22">
       <c r="V121" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="12:22">
-      <c r="L122"/>
+    <row r="122" spans="22:22">
       <c r="V122" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="12:22" ht="22">
-      <c r="L123" s="17" t="s">
-        <v>80</v>
-      </c>
+    <row r="123" spans="22:22">
       <c r="V123" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="12:22">
-      <c r="L124" s="18"/>
+    <row r="124" spans="22:22">
       <c r="V124" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="12:22">
-      <c r="L125" s="18" t="s">
-        <v>81</v>
-      </c>
+    <row r="125" spans="22:22">
       <c r="V125" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="12:22">
-      <c r="L126" s="18"/>
-    </row>
-    <row r="127" spans="12:22">
-      <c r="L127" s="18" t="s">
-        <v>82</v>
-      </c>
+    <row r="127" spans="22:22">
       <c r="V127" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="12:22">
-      <c r="L128"/>
+    <row r="128" spans="22:22">
       <c r="V128" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="12:22" ht="22">
-      <c r="L129" s="17" t="s">
-        <v>83</v>
-      </c>
+    <row r="129" spans="12:22">
       <c r="V129" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="130" spans="12:22">
-      <c r="L130" s="18"/>
       <c r="V130" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="131" spans="12:22">
-      <c r="L131" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="V131" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="12:22">
-      <c r="L132" s="18"/>
+    <row r="132" spans="12:22" ht="22.8">
+      <c r="L132" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="133" spans="12:22">
-      <c r="L133" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="L133"/>
       <c r="V133" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="12:22">
+    <row r="134" spans="12:22" ht="17.399999999999999">
+      <c r="L134" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="V134" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="135" spans="12:22">
+      <c r="L135" s="15"/>
       <c r="V135" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="136" spans="12:22">
-      <c r="L136" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>90</v>
+      <c r="L136" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="V136" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="137" spans="12:22">
-      <c r="L137" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M137" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="L137" s="15"/>
       <c r="V137" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="138" spans="12:22">
-      <c r="L138" s="1" t="s">
+      <c r="L138" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="12:22">
+      <c r="L139"/>
+      <c r="V139" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="12:22" ht="17.399999999999999">
+      <c r="L140" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="12:22">
+      <c r="L141" s="15"/>
+    </row>
+    <row r="142" spans="12:22">
+      <c r="L142" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="12:22">
+      <c r="L143" s="15"/>
+    </row>
+    <row r="144" spans="12:22">
+      <c r="L144" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="12:13">
+      <c r="L145"/>
+    </row>
+    <row r="146" spans="12:13" ht="17.399999999999999">
+      <c r="L146" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="12:13">
+      <c r="L147" s="15"/>
+    </row>
+    <row r="148" spans="12:13">
+      <c r="L148" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="12:13">
+      <c r="L149" s="15"/>
+    </row>
+    <row r="150" spans="12:13">
+      <c r="L150" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="12:13">
+      <c r="L151"/>
+    </row>
+    <row r="152" spans="12:13" ht="17.399999999999999">
+      <c r="L152" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="12:13">
+      <c r="L153" s="15"/>
+    </row>
+    <row r="154" spans="12:13">
+      <c r="L154" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="12:13">
+      <c r="L155" s="15"/>
+    </row>
+    <row r="156" spans="12:13">
+      <c r="L156" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="12:13">
+      <c r="L159" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="12:13">
+      <c r="L160" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M160" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="12:13">
+      <c r="L161" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M138" s="1" t="s">
+      <c r="M161" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="12:22">
-      <c r="L139" s="1" t="s">
+    <row r="162" spans="12:13">
+      <c r="L162" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M139" s="1" t="s">
+      <c r="M162" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="V139" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10871,7 +10779,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D71" r:id="rId1" xr:uid="{85D27532-3A39-494E-BC91-EC4B713EBF94}"/>
+    <hyperlink ref="D94" r:id="rId1" xr:uid="{85D27532-3A39-494E-BC91-EC4B713EBF94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C9993-1C07-4B19-A3EF-51C670BC1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D14721-DF7E-4D30-A9F0-DC9772A3933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Search Input Area（高级搜索）</t>
     <phoneticPr fontId="1"/>
@@ -50,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -61,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -82,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -124,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -145,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +197,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -207,7 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -228,7 +239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -254,7 +265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -275,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -296,7 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -379,7 +390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -431,7 +442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -441,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -452,7 +463,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -473,7 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -593,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +641,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -656,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -677,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -698,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -724,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -745,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -802,7 +813,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -844,7 +855,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -886,7 +897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +933,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -943,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -953,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -985,7 +996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1027,7 +1038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1079,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1089,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1100,7 +1111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1121,7 +1132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1142,7 +1153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1163,7 +1174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1184,7 +1195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,7 +1216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1226,7 +1237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1268,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1294,7 +1305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1315,7 +1326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1341,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1362,7 +1373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1372,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1404,7 +1415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1419,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1430,7 +1441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1451,7 +1462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1472,7 +1483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1493,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1514,7 +1525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1535,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1550,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1582,7 +1593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1603,7 +1614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1613,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1635,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1645,7 +1656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1671,7 +1682,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1692,7 +1703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1713,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1739,7 +1750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1749,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1775,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1786,7 +1797,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1807,7 +1818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1822,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1843,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1854,7 +1865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1885,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1896,7 +1907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1917,7 +1928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1932,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1943,7 +1954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1953,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1964,7 +1975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1979,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1990,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2000,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2011,7 +2022,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2026,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2037,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2058,7 +2069,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2100,7 +2111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2126,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2147,7 +2158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2157,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2168,7 +2179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2183,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2215,7 +2226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2241,7 +2252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2251,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2262,7 +2273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2272,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2283,7 +2294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2293,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2304,7 +2315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2330,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2340,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2351,7 +2362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2366,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2377,7 +2388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2392,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2403,7 +2414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2429,7 +2440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2439,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2450,7 +2461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2471,7 +2482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2497,7 +2508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2518,7 +2529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2539,7 +2550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2565,7 +2576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2575,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2586,7 +2597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2596,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2607,7 +2618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2617,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2628,7 +2639,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2638,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2649,7 +2660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2659,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2670,7 +2681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2696,7 +2707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2711,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2722,7 +2733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2732,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2743,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2758,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2769,7 +2780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2800,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2811,7 +2822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2821,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2832,7 +2843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2842,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2853,7 +2864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2868,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2879,7 +2890,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2889,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2911,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2921,7 +2932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2936,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2947,7 +2958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2962,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2973,7 +2984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2983,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +3005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3004,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3015,7 +3026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3025,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3036,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3051,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3062,7 +3073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3072,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3083,7 +3094,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3098,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3109,7 +3120,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3119,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3130,7 +3141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3151,7 +3162,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3198,7 +3209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3208,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3219,7 +3230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3234,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3245,7 +3256,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3266,7 +3277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3276,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3287,7 +3298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3313,7 +3324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3323,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3334,7 +3345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3344,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3355,7 +3366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3365,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3376,7 +3387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3391,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3402,7 +3413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3412,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3423,7 +3434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3438,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3449,7 +3460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3459,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3491,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3506,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3517,7 +3528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3527,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3538,7 +3549,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3553,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3574,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3585,7 +3596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3606,7 +3617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3616,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3627,7 +3638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3642,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3653,7 +3664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3684,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3695,7 +3706,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3721,7 +3732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3731,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3742,7 +3753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3752,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3763,7 +3774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3773,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3784,7 +3795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3805,7 +3816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3826,7 +3837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3836,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3847,7 +3858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3868,7 +3879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3878,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3889,7 +3900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3904,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3915,7 +3926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3941,7 +3952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3951,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3962,7 +3973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3977,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3988,7 +3999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3998,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4009,7 +4020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4030,7 +4041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4051,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4061,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4072,7 +4083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4098,7 +4109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4108,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4119,7 +4130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4129,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4140,7 +4151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4155,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4166,7 +4177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4176,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4187,7 +4198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4202,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4213,7 +4224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4223,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4234,7 +4245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4249,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4260,7 +4271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4270,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4281,7 +4292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4291,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4302,7 +4313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4312,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4323,7 +4334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4333,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4344,7 +4355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4359,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4370,7 +4381,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4380,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4391,7 +4402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4401,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4412,7 +4423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4422,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4433,7 +4444,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4459,7 +4470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4469,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4480,7 +4491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4490,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4501,7 +4512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4511,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4522,7 +4533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4532,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4543,7 +4554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4558,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4569,7 +4580,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4579,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4590,7 +4601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4600,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4611,7 +4622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4621,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4632,7 +4643,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4642,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4653,7 +4664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4668,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4679,7 +4690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4694,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4705,7 +4716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4715,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4726,7 +4737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4736,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4747,7 +4758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4757,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4768,7 +4779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4783,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4794,7 +4805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4804,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4815,7 +4826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4830,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4841,7 +4852,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4851,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4862,7 +4873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4872,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4883,7 +4894,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4893,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4904,7 +4915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4919,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4930,7 +4941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4940,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4951,7 +4962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4961,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4972,7 +4983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4982,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4993,7 +5004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5008,7 +5019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5018,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5029,7 +5040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5039,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5050,7 +5061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5071,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5081,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5092,7 +5103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5102,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5113,7 +5124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5134,7 +5145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5144,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5155,7 +5166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5221,7 +5232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5232,7 +5243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5242,7 +5253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -5253,7 +5264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5268,7 +5279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5279,7 +5290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5289,7 +5300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5300,7 +5311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5310,7 +5321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5321,7 +5332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5336,7 +5347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5352,7 +5363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5363,7 +5374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5373,7 +5384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5384,12 +5395,16 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>分析</t>
     </r>
+  </si>
+  <si>
+    <t>Tab分页（中/美/其他）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5400,13 +5415,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5422,14 +5437,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5437,7 +5452,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5446,7 +5461,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5455,7 +5470,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5599,7 +5614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5632,10 +5647,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5733,13 +5749,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>662213</xdr:colOff>
+      <xdr:colOff>163284</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>616855</xdr:colOff>
+      <xdr:colOff>117926</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>208642</xdr:rowOff>
     </xdr:to>
@@ -5756,7 +5772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1324427" y="4336143"/>
+          <a:off x="825498" y="4336143"/>
           <a:ext cx="616857" cy="181428"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5811,15 +5827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65317</xdr:colOff>
+      <xdr:colOff>156031</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>48987</xdr:rowOff>
+      <xdr:rowOff>185059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546103</xdr:colOff>
+      <xdr:colOff>636817</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>21773</xdr:rowOff>
+      <xdr:rowOff>157845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5834,8 +5850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1861460" y="3728358"/>
-          <a:ext cx="1079500" cy="321129"/>
+          <a:off x="2142674" y="4947559"/>
+          <a:ext cx="1143000" cy="426357"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -6430,16 +6446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
+      <xdr:colOff>471713</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>199572</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6454,7 +6470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342571" y="7048500"/>
+          <a:off x="1179285" y="7039428"/>
           <a:ext cx="616857" cy="181429"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6586,16 +6602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>172356</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>208643</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>644070</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6610,7 +6626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5805714" y="7157357"/>
+          <a:off x="8264071" y="7674428"/>
           <a:ext cx="2975428" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -9070,15 +9086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>553356</xdr:colOff>
+      <xdr:colOff>535213</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>52251</xdr:rowOff>
+      <xdr:rowOff>161108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9093,8 +9109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3066142" y="3751942"/>
-          <a:ext cx="1079500" cy="328023"/>
+          <a:off x="3365499" y="4943928"/>
+          <a:ext cx="1143000" cy="433251"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -9710,6 +9726,162 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16E93FB-E676-47DE-AC5E-33C1BDB1041B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2104572" y="4345214"/>
+          <a:ext cx="4826000" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HEADER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 上の 2 つの角を丸める 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BFEA96-06E8-4420-ADC6-ADA1715C2B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="4943929"/>
+          <a:ext cx="1143000" cy="433251"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其他指标线图</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9978,11 +10150,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -10009,7 +10181,7 @@
       <c r="D8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="4:11" ht="15.6">
+    <row r="9" spans="4:11">
       <c r="D9" s="5"/>
       <c r="E9" s="17" t="s">
         <v>0</v>
@@ -10058,7 +10230,9 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="5"/>
+      <c r="D21" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="4:11">
@@ -10373,7 +10547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="4:22" ht="15.6">
+    <row r="88" spans="4:22">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -10389,7 +10563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="4:22" ht="15.6">
+    <row r="90" spans="4:22">
       <c r="D90" s="11" t="s">
         <v>2</v>
       </c>
@@ -10400,7 +10574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="4:22" ht="15.6">
+    <row r="91" spans="4:22">
       <c r="D91" s="11" t="s">
         <v>3</v>
       </c>
@@ -10411,7 +10585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="4:22" ht="15.6">
+    <row r="92" spans="4:22">
       <c r="D92" s="11"/>
       <c r="O92" s="1" t="s">
         <v>7</v>
@@ -10622,7 +10796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="12:22" ht="22.8">
+    <row r="132" spans="12:22" ht="29">
       <c r="L132" s="13" t="s">
         <v>73</v>
       </c>
@@ -10633,7 +10807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="12:22" ht="17.399999999999999">
+    <row r="134" spans="12:22" ht="22">
       <c r="L134" s="14" t="s">
         <v>74</v>
       </c>
@@ -10672,7 +10846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="12:22" ht="17.399999999999999">
+    <row r="140" spans="12:22" ht="22">
       <c r="L140" s="14" t="s">
         <v>77</v>
       </c>
@@ -10696,7 +10870,7 @@
     <row r="145" spans="12:13">
       <c r="L145"/>
     </row>
-    <row r="146" spans="12:13" ht="17.399999999999999">
+    <row r="146" spans="12:13" ht="22">
       <c r="L146" s="14" t="s">
         <v>80</v>
       </c>
@@ -10720,7 +10894,7 @@
     <row r="151" spans="12:13">
       <c r="L151"/>
     </row>
-    <row r="152" spans="12:13" ht="17.399999999999999">
+    <row r="152" spans="12:13" ht="22">
       <c r="L152" s="14" t="s">
         <v>83</v>
       </c>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D14721-DF7E-4D30-A9F0-DC9772A3933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E693F-AE2D-4E87-B708-0AFF19D47137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -93,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -135,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -156,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -197,7 +197,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -218,7 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -239,7 +239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -286,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -307,7 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -364,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -390,7 +390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -442,7 +442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -463,7 +463,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -484,7 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -505,7 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,7 +520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -562,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -604,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -615,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -641,7 +641,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -656,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -667,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -688,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -709,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -724,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -735,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -745,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -756,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -777,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -813,7 +813,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -844,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -855,7 +855,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -876,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -897,7 +897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -918,7 +918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -933,7 +933,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -954,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -975,7 +975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -996,7 +996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1038,7 +1038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1090,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1100,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1111,7 +1111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1132,7 +1132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1174,7 +1174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1195,7 +1195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1216,7 +1216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1226,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1237,7 +1237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1279,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1305,7 +1305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1326,7 +1326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1362,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1373,7 +1373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1394,7 +1394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1404,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1415,7 +1415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1462,7 +1462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1472,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1483,7 +1483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1493,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1504,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1525,7 +1525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1546,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1572,7 +1572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1593,7 +1593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1603,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1614,7 +1614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1635,7 +1635,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1645,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1656,7 +1656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1671,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1682,7 +1682,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1692,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1703,7 +1703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1750,7 +1750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1760,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1771,7 +1771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1786,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1797,7 +1797,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1807,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1818,7 +1818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1844,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1865,7 +1865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1886,7 +1886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1896,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1907,7 +1907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1917,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1928,7 +1928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1943,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1954,7 +1954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1964,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1975,7 +1975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2001,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2022,7 +2022,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2037,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2048,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2069,7 +2069,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2090,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2111,7 +2111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2126,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2137,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2158,7 +2158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2179,7 +2179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2205,7 +2205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2226,7 +2226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2241,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2252,7 +2252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2262,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2273,7 +2273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2283,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2294,7 +2294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2315,7 +2315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2330,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2341,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2351,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2362,7 +2362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2377,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2388,7 +2388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2403,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2414,7 +2414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2440,7 +2440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2461,7 +2461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2471,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2482,7 +2482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2497,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2508,7 +2508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2518,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2529,7 +2529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2539,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2550,7 +2550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2576,7 +2576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2597,7 +2597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2607,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2618,7 +2618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2628,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2639,7 +2639,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2649,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2660,7 +2660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2670,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2681,7 +2681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2696,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2707,7 +2707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2722,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2733,7 +2733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2743,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2769,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2780,7 +2780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2801,7 +2801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2811,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2822,7 +2822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2832,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2843,7 +2843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2853,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2864,7 +2864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2879,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2890,7 +2890,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2911,7 +2911,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2921,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2932,7 +2932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2947,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2958,7 +2958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2973,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2984,7 +2984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3005,7 +3005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3015,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3026,7 +3026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3062,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3073,7 +3073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3083,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3094,7 +3094,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3109,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3120,7 +3120,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3141,7 +3141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3151,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3162,7 +3162,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3188,7 +3188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3198,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3209,7 +3209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3219,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3230,7 +3230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3245,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3256,7 +3256,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3266,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3277,7 +3277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3298,7 +3298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3313,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3324,7 +3324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3334,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3345,7 +3345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3355,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3366,7 +3366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3376,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3387,7 +3387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3402,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3413,7 +3413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3434,7 +3434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3460,7 +3460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3481,7 +3481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3491,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3502,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3517,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3528,7 +3528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3538,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3549,7 +3549,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3575,7 +3575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3585,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3596,7 +3596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3606,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3617,7 +3617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3627,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3638,7 +3638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3653,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3664,7 +3664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3685,7 +3685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3695,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3706,7 +3706,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3721,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3732,7 +3732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3742,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3753,7 +3753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3763,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3774,7 +3774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3784,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3795,7 +3795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3805,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3816,7 +3816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3826,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3837,7 +3837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3847,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3858,7 +3858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3879,7 +3879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3889,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3900,7 +3900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3915,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3926,7 +3926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3941,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3952,7 +3952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3973,7 +3973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3988,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3999,7 +3999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4009,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4020,7 +4020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4041,7 +4041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4051,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4062,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4083,7 +4083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4098,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4109,7 +4109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4119,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4130,7 +4130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4140,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4151,7 +4151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4166,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4177,7 +4177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4187,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4198,7 +4198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4213,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4224,7 +4224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4234,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4245,7 +4245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4260,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4271,7 +4271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4281,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4292,7 +4292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4302,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4313,7 +4313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4323,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4334,7 +4334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4344,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4355,7 +4355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4370,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4381,7 +4381,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4391,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4402,7 +4402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4412,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4423,7 +4423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4433,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4444,7 +4444,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4470,7 +4470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4480,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4491,7 +4491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4501,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4512,7 +4512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4522,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4533,7 +4533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4543,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4554,7 +4554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4569,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4580,7 +4580,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4590,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4601,7 +4601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4611,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4622,7 +4622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4632,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4643,7 +4643,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4653,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4664,7 +4664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4679,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4690,7 +4690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4705,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4716,7 +4716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4726,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4737,7 +4737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4747,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4758,7 +4758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4768,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4779,7 +4779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4794,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4805,7 +4805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4815,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4826,7 +4826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4841,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4852,7 +4852,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4873,7 +4873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4883,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4894,7 +4894,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4904,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4915,7 +4915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4941,7 +4941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4951,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4962,7 +4962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4972,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4983,7 +4983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4993,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5004,7 +5004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5019,7 +5019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5029,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5040,7 +5040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5050,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5061,7 +5061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5092,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5103,7 +5103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5113,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5124,7 +5124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5145,7 +5145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5155,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5166,7 +5166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5232,7 +5232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5243,7 +5243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5253,7 +5253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -5264,7 +5264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5279,7 +5279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5290,7 +5290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5300,7 +5300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5311,7 +5311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5321,7 +5321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5332,7 +5332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5347,7 +5347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5363,7 +5363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5374,7 +5374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5384,7 +5384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5395,7 +5395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5415,13 +5415,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5437,14 +5437,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5452,7 +5452,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5461,7 +5461,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5470,7 +5470,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5638,6 +5638,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5647,11 +5648,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9406,15 +9406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>36284</xdr:colOff>
+      <xdr:colOff>58055</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:rowOff>39913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>226784</xdr:colOff>
+      <xdr:colOff>248555</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:rowOff>30842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9429,8 +9429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022927" y="9543142"/>
-          <a:ext cx="4826000" cy="217715"/>
+          <a:off x="1854198" y="11404599"/>
+          <a:ext cx="4381500" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10150,11 +10150,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -10181,16 +10181,16 @@
       <c r="D8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:11" ht="15.6">
       <c r="D9" s="5"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="4:11">
@@ -10229,8 +10229,8 @@
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="20" t="s">
+    <row r="21" spans="4:11" ht="15.6">
+      <c r="D21" s="17" t="s">
         <v>94</v>
       </c>
       <c r="K21" s="6"/>
@@ -10547,7 +10547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="4:22">
+    <row r="88" spans="4:22" ht="15.6">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="4:22">
+    <row r="90" spans="4:22" ht="15.6">
       <c r="D90" s="11" t="s">
         <v>2</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="4:22">
+    <row r="91" spans="4:22" ht="15.6">
       <c r="D91" s="11" t="s">
         <v>3</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="4:22">
+    <row r="92" spans="4:22" ht="15.6">
       <c r="D92" s="11"/>
       <c r="O92" s="1" t="s">
         <v>7</v>
@@ -10796,7 +10796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="12:22" ht="29">
+    <row r="132" spans="12:22" ht="22.8">
       <c r="L132" s="13" t="s">
         <v>73</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="12:22" ht="22">
+    <row r="134" spans="12:22" ht="17.399999999999999">
       <c r="L134" s="14" t="s">
         <v>74</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="12:22" ht="22">
+    <row r="140" spans="12:22" ht="17.399999999999999">
       <c r="L140" s="14" t="s">
         <v>77</v>
       </c>
@@ -10870,7 +10870,7 @@
     <row r="145" spans="12:13">
       <c r="L145"/>
     </row>
-    <row r="146" spans="12:13" ht="22">
+    <row r="146" spans="12:13" ht="17.399999999999999">
       <c r="L146" s="14" t="s">
         <v>80</v>
       </c>
@@ -10894,7 +10894,7 @@
     <row r="151" spans="12:13">
       <c r="L151"/>
     </row>
-    <row r="152" spans="12:13" ht="22">
+    <row r="152" spans="12:13" ht="17.399999999999999">
       <c r="L152" s="14" t="s">
         <v>83</v>
       </c>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\vs_workspace\stock_analyzer\md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E693F-AE2D-4E87-B708-0AFF19D47137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78749F52-8548-4A1A-B5A2-E72105AFF671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="archi" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Search Input Area（高级搜索）</t>
     <phoneticPr fontId="1"/>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -93,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -135,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -156,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -197,7 +197,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -218,7 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -239,7 +239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -286,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -307,7 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -364,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -390,7 +390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -442,7 +442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -463,7 +463,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -484,7 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -505,7 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,7 +520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -530,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -562,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -604,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -615,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -641,7 +641,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -656,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -667,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -688,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -709,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -724,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -735,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -745,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -756,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -777,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -813,7 +813,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -834,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -844,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -855,7 +855,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -876,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -897,7 +897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -918,7 +918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -933,7 +933,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -954,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -975,7 +975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -996,7 +996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1038,7 +1038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1090,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1100,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1111,7 +1111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1121,7 +1121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1132,7 +1132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1174,7 +1174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1195,7 +1195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1216,7 +1216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1226,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1237,7 +1237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1279,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1305,7 +1305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1326,7 +1326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1362,7 +1362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1373,7 +1373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1394,7 +1394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1404,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1415,7 +1415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1462,7 +1462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1472,7 +1472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1483,7 +1483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1493,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1504,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1525,7 +1525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1535,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1546,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1572,7 +1572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1593,7 +1593,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1603,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1614,7 +1614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1635,7 +1635,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1645,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1656,7 +1656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1671,7 +1671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1682,7 +1682,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1692,7 +1692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1703,7 +1703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1750,7 +1750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1760,7 +1760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1771,7 +1771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1786,7 +1786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1797,7 +1797,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1807,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1818,7 +1818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1844,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1865,7 +1865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1875,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1886,7 +1886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1896,7 +1896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1907,7 +1907,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1917,7 +1917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1928,7 +1928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1943,7 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1954,7 +1954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1964,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1975,7 +1975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1990,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2001,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2022,7 +2022,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2037,7 +2037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2048,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2069,7 +2069,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2090,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2111,7 +2111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2126,7 +2126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2137,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2147,7 +2147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2158,7 +2158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2179,7 +2179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2205,7 +2205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2226,7 +2226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2241,7 +2241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2252,7 +2252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2262,7 +2262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2273,7 +2273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2283,7 +2283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2294,7 +2294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2315,7 +2315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2330,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2341,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2351,7 +2351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2362,7 +2362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2377,7 +2377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2388,7 +2388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2403,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2414,7 +2414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2440,7 +2440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,7 +2450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2461,7 +2461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2471,7 +2471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2482,7 +2482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2497,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2508,7 +2508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2518,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2529,7 +2529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2539,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2550,7 +2550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2576,7 +2576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2586,7 +2586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2597,7 +2597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2607,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2618,7 +2618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2628,7 +2628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2639,7 +2639,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2649,7 +2649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2660,7 +2660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2670,7 +2670,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2681,7 +2681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2696,7 +2696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2707,7 +2707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2722,7 +2722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2733,7 +2733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2743,7 +2743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2754,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2769,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2780,7 +2780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2801,7 +2801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2811,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2822,7 +2822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2832,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2843,7 +2843,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2853,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2864,7 +2864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2879,7 +2879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2890,7 +2890,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2911,7 +2911,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2921,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2932,7 +2932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2947,7 +2947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2958,7 +2958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2973,7 +2973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2984,7 +2984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3005,7 +3005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3015,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3026,7 +3026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3036,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3047,7 +3047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3062,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3073,7 +3073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3083,7 +3083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3094,7 +3094,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3109,7 +3109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3120,7 +3120,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,7 +3130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3141,7 +3141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3151,7 +3151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3162,7 +3162,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3188,7 +3188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3198,7 +3198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3209,7 +3209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3219,7 +3219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3230,7 +3230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3245,7 +3245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3256,7 +3256,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3266,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3277,7 +3277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,7 +3287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3298,7 +3298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3313,7 +3313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3324,7 +3324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3334,7 +3334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3345,7 +3345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3355,7 +3355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3366,7 +3366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3376,7 +3376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3387,7 +3387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3402,7 +3402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3413,7 +3413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3434,7 +3434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3460,7 +3460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3481,7 +3481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3491,7 +3491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3502,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3517,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3528,7 +3528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3538,7 +3538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3549,7 +3549,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3575,7 +3575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3585,7 +3585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3596,7 +3596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3606,7 +3606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3617,7 +3617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3627,7 +3627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3638,7 +3638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3653,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3664,7 +3664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3685,7 +3685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3695,7 +3695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3706,7 +3706,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3721,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3732,7 +3732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3742,7 +3742,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3753,7 +3753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3763,7 +3763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3774,7 +3774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3784,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3795,7 +3795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3805,7 +3805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3816,7 +3816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3826,7 +3826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3837,7 +3837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3847,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3858,7 +3858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3879,7 +3879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3889,7 +3889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3900,7 +3900,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3915,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3926,7 +3926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3941,7 +3941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3952,7 +3952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3973,7 +3973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3988,7 +3988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3999,7 +3999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4009,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4020,7 +4020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4041,7 +4041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4051,7 +4051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4062,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -4083,7 +4083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4098,7 +4098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4109,7 +4109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4119,7 +4119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4130,7 +4130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4140,7 +4140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4151,7 +4151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4166,7 +4166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4177,7 +4177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4187,7 +4187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4198,7 +4198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4213,7 +4213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4224,7 +4224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4234,7 +4234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4245,7 +4245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4260,7 +4260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4271,7 +4271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4281,7 +4281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4292,7 +4292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4302,7 +4302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4313,7 +4313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4323,7 +4323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4334,7 +4334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4344,7 +4344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4355,7 +4355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4370,7 +4370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4381,7 +4381,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4391,7 +4391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4402,7 +4402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4412,7 +4412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4423,7 +4423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4433,7 +4433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4444,7 +4444,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4470,7 +4470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4480,7 +4480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4491,7 +4491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4501,7 +4501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4512,7 +4512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4522,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4533,7 +4533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4543,7 +4543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4554,7 +4554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4569,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4580,7 +4580,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4590,7 +4590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4601,7 +4601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4611,7 +4611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4622,7 +4622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4632,7 +4632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4643,7 +4643,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4653,7 +4653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4664,7 +4664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4679,7 +4679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4690,7 +4690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4705,7 +4705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4716,7 +4716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4726,7 +4726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4737,7 +4737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4747,7 +4747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4758,7 +4758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4768,7 +4768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4779,7 +4779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4794,7 +4794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4805,7 +4805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4815,7 +4815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4826,7 +4826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4841,7 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4852,7 +4852,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4873,7 +4873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4883,7 +4883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4894,7 +4894,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4904,7 +4904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4915,7 +4915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4941,7 +4941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4951,7 +4951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4962,7 +4962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4972,7 +4972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4983,7 +4983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4993,7 +4993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5004,7 +5004,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5019,7 +5019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5029,7 +5029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5040,7 +5040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5050,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5061,7 +5061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5071,7 +5071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5082,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5092,7 +5092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5103,7 +5103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5113,7 +5113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5124,7 +5124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5145,7 +5145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5155,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5166,7 +5166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5232,7 +5232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5243,7 +5243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5253,7 +5253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -5264,7 +5264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5279,7 +5279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5290,7 +5290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5300,7 +5300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5311,7 +5311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5321,7 +5321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5332,7 +5332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5347,7 +5347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5363,7 +5363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5374,7 +5374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5384,7 +5384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5395,7 +5395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5404,6 +5404,58 @@
   </si>
   <si>
     <t>Tab分页（中/美/其他）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>检索结果List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件：因为是复合关键词 所以需要引导或者提示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>语义解析→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>关键词映射→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>结果查询→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>财报指标相关</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>资金流量相关</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XX政策相关</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/代码/行业板块/概念/发展前景</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5415,13 +5467,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5437,14 +5489,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5452,7 +5504,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5461,7 +5513,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5470,7 +5522,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5614,7 +5666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5648,10 +5700,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6844,16 +6897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518885</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>564241</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246742</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10522</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6868,13 +6921,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8900885" y="5366657"/>
-          <a:ext cx="1524000" cy="413294"/>
+          <a:off x="6524170" y="3739243"/>
+          <a:ext cx="1714500" cy="571137"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -129080"/>
-            <a:gd name="adj2" fmla="val -138362"/>
+            <a:gd name="adj1" fmla="val -134900"/>
+            <a:gd name="adj2" fmla="val 184065"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7459,16 +7512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>199571</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7483,7 +7536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342571" y="9543142"/>
+          <a:off x="235857" y="15493999"/>
           <a:ext cx="616857" cy="181429"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9406,15 +9459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>58055</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>39913</xdr:rowOff>
+      <xdr:colOff>130626</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>58055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>248555</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>30842</xdr:rowOff>
+      <xdr:colOff>321126</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9429,8 +9482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1854198" y="11404599"/>
-          <a:ext cx="4381500" cy="165100"/>
+          <a:off x="2117269" y="13891984"/>
+          <a:ext cx="4826000" cy="217715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9882,6 +9935,196 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EE520B-1DDF-54DD-C2A0-E46BD598B309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5715000" y="1478643"/>
+          <a:ext cx="5025571" cy="417286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>36287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>553358</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="フローチャート: 処理 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0CB9AC-139C-A894-CFD0-91F0FBACEB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14605001" y="1415143"/>
+          <a:ext cx="1179286" cy="1560286"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相关热点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B261A50-BB4B-5C26-6726-664AF535B01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3066143" y="2041071"/>
+          <a:ext cx="8128000" cy="15684500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10148,18 +10391,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:V162"/>
+  <dimension ref="D3:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:11">
+    <row r="3" spans="4:28">
+      <c r="R3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="4:28">
+      <c r="Z4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="4:28">
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -10168,20 +10430,51 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="4:11">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="4"/>
+      <c r="Z5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="4:28">
       <c r="D6" s="5"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="4:11">
+      <c r="Q6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="AB6" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="4:28">
       <c r="D7" s="5"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="4:11">
+      <c r="Q7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="4:28">
       <c r="D8" s="5"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="4:11" ht="15.6">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="4"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="4:28">
       <c r="D9" s="5"/>
       <c r="E9" s="18" t="s">
         <v>0</v>
@@ -10192,24 +10485,54 @@
       <c r="I9" s="19"/>
       <c r="J9" s="20"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="4:11">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="4:28">
       <c r="D10" s="5"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="4:11">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="4:28">
       <c r="D11" s="5"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="4:11">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="4:28">
       <c r="D12" s="5"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="4:11">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="4:28">
       <c r="D13" s="5"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="4:11">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="4:28">
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -10218,6 +10541,14 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="20" spans="4:11">
       <c r="D20" s="2"/>
@@ -10229,7 +10560,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="4:11" ht="15.6">
+    <row r="21" spans="4:11">
       <c r="D21" s="17" t="s">
         <v>94</v>
       </c>
@@ -10547,7 +10878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="4:22" ht="15.6">
+    <row r="88" spans="4:22">
       <c r="O88" s="1" t="s">
         <v>18</v>
       </c>
@@ -10563,7 +10894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="4:22" ht="15.6">
+    <row r="90" spans="4:22">
       <c r="D90" s="11" t="s">
         <v>2</v>
       </c>
@@ -10574,7 +10905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="4:22" ht="15.6">
+    <row r="91" spans="4:22">
       <c r="D91" s="11" t="s">
         <v>3</v>
       </c>
@@ -10585,7 +10916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="4:22" ht="15.6">
+    <row r="92" spans="4:22">
       <c r="D92" s="11"/>
       <c r="O92" s="1" t="s">
         <v>7</v>
@@ -10796,7 +11127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="12:22" ht="22.8">
+    <row r="132" spans="12:22" ht="29">
       <c r="L132" s="13" t="s">
         <v>73</v>
       </c>
@@ -10807,7 +11138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="12:22" ht="17.399999999999999">
+    <row r="134" spans="12:22" ht="22">
       <c r="L134" s="14" t="s">
         <v>74</v>
       </c>
@@ -10846,7 +11177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="12:22" ht="17.399999999999999">
+    <row r="140" spans="12:22" ht="22">
       <c r="L140" s="14" t="s">
         <v>77</v>
       </c>
@@ -10870,7 +11201,7 @@
     <row r="145" spans="12:13">
       <c r="L145"/>
     </row>
-    <row r="146" spans="12:13" ht="17.399999999999999">
+    <row r="146" spans="12:13" ht="22">
       <c r="L146" s="14" t="s">
         <v>80</v>
       </c>
@@ -10894,7 +11225,7 @@
     <row r="151" spans="12:13">
       <c r="L151"/>
     </row>
-    <row r="152" spans="12:13" ht="17.399999999999999">
+    <row r="152" spans="12:13" ht="22">
       <c r="L152" s="14" t="s">
         <v>83</v>
       </c>

--- a/md/layout.xlsx
+++ b/md/layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vs_workspace\stock_analyzer\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78749F52-8548-4A1A-B5A2-E72105AFF671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5FBC1-8ACA-4006-8AC2-569B193FF50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5666,7 +5666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5700,7 +5700,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7192,7 +7191,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>主图（日线图）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>副图（指标图）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8382,7 +8409,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>相关热点</a:t>
+            <a:t>相关热点新闻（轮动）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8535,15 +8562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
+      <xdr:colOff>88902</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:colOff>99788</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>208642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8558,8 +8585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13269686" y="6905171"/>
-          <a:ext cx="2405743" cy="3207657"/>
+          <a:off x="14657616" y="8980714"/>
+          <a:ext cx="2659743" cy="4154714"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -8915,16 +8942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>145144</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>471714</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8939,8 +8966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9416144" y="10495643"/>
-          <a:ext cx="4962070" cy="1079500"/>
+          <a:off x="15820572" y="12700000"/>
+          <a:ext cx="4018642" cy="1279071"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -9124,7 +9151,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>价值维度→从品论和讨论中选择 赞同最多的 讨论最多的 转换成标签 在此显示</a:t>
+            <a:t>热点标签展示栏</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9601,95 +9628,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>市场热点</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>453569</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>625927</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="思考の吹き出し: 雲形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03C5CDC-D6AF-9B92-48B0-C49DE8D07BFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14360069" y="8953499"/>
-          <a:ext cx="834572" cy="371929"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloudCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -117572"/>
-            <a:gd name="adj2" fmla="val 135671"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HAT</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -10393,8 +10331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -10486,9 +10424,6 @@
       <c r="J9" s="20"/>
       <c r="K9" s="6"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
       <c r="U9" s="6"/>
       <c r="X9" s="6"/>
     </row>
@@ -10496,9 +10431,6 @@
       <c r="D10" s="5"/>
       <c r="K10" s="6"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
       <c r="U10" s="6"/>
       <c r="X10" s="6"/>
     </row>
@@ -10506,9 +10438,6 @@
       <c r="D11" s="5"/>
       <c r="K11" s="6"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
       <c r="U11" s="6"/>
       <c r="X11" s="6"/>
     </row>
@@ -10516,9 +10445,6 @@
       <c r="D12" s="5"/>
       <c r="K12" s="6"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
       <c r="U12" s="6"/>
       <c r="X12" s="6"/>
     </row>
